--- a/biology/Zoologie/Buthus_trinacrius/Buthus_trinacrius.xlsx
+++ b/biology/Zoologie/Buthus_trinacrius/Buthus_trinacrius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buthus trinacrius est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Sicile en Italie[1]. Elle se rencontre vers Palerme.
-Cette espèce a été décrite à partir de spécimens anciens, les auteurs pensent qu'elle pourrait être éteinte du fait de l'urbanisation[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Sicile en Italie. Elle se rencontre vers Palerme.
+Cette espèce a été décrite à partir de spécimens anciens, les auteurs pensent qu'elle pourrait être éteinte du fait de l'urbanisation.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 57,6 mm et la femelle paratype 59,8 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 57,6 mm et la femelle paratype 59,8 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, la  Trinacrie.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lourenço &amp; Rossi, 2013 : « A Confirmation of a new species of Buthus Leach, 1815 from Sicily (Scorpiones, Buthidae). Biogeographical implications. » Revista Ibérica de Aracnología, no 22, p. 9-14 (texte intégral).</t>
         </is>
